--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.898000000000003</v>
+        <v>5.997700000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.111100000000002</v>
+        <v>5.903000000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.352499999999996</v>
+        <v>5.334999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.175700000000001</v>
+        <v>9.033799999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.908099999999997</v>
+        <v>8.903099999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.515599999999999</v>
+        <v>5.491000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.838500000000007</v>
+        <v>5.038000000000006</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.194800000000002</v>
+        <v>5.3006</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -992,7 +992,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.932999999999996</v>
+        <v>8.690800000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1174,7 +1174,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.9716</v>
+        <v>5.704500000000001</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.615699999999993</v>
+        <v>4.967699999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.0169</v>
+        <v>5.229000000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.213400000000002</v>
+        <v>6.002499999999999</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.342599999999994</v>
+        <v>5.438399999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.258600000000003</v>
+        <v>9.475700000000007</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.712999999999998</v>
+        <v>5.387599999999995</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.868500000000004</v>
+        <v>6.003400000000002</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.4047</v>
+        <v>5.658299999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.454900000000005</v>
+        <v>5.234400000000005</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>5.674299999999999</v>
+        <v>5.858799999999998</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
